--- a/bugs/24/bug-source.xlsx
+++ b/bugs/24/bug-source.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Bug ID</t>
   </si>
@@ -87,6 +87,57 @@
   </si>
   <si>
     <t>ssl.sh</t>
+  </si>
+  <si>
+    <t>libdleyna/core/main-loop.c
+libdleyna/core/main-loop.c
+server.c
+upnp.c</t>
+  </si>
+  <si>
+    <t>dleyna-renderer: Crashes due to double-free when destroying the same dlr_upnp_t twice</t>
+  </si>
+  <si>
+    <t>dleyna-renderer</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>dbus-c++</t>
+  </si>
+  <si>
+    <t>dbus-c++: does not prevent expansion of internal XML entities</t>
+  </si>
+  <si>
+    <t>memory locking limit for regular users is too low to launch guests through libvirt</t>
+  </si>
+  <si>
+    <t>qemu</t>
+  </si>
+  <si>
+    <t>/etc/security/limits.d/qemu-kvm-rhev-memlock.conf</t>
+  </si>
+  <si>
+    <t>nss/lib/ckfw/pem/prsa.c
+nss/lib/ckfw/pem/pfind.c
+nss/lib/ckfw/pem/pobject.c</t>
+  </si>
+  <si>
+    <t>[PEM] insufficient input validity checking while loading a private key</t>
+  </si>
+  <si>
+    <t>Reopened</t>
+  </si>
+  <si>
+    <t>1.8.0.91-1.b14.fc25 (OpenJDK April CPU) breaks EC ciphers</t>
+  </si>
+  <si>
+    <t>java-1.8.0-openjdk</t>
+  </si>
+  <si>
+    <t>openjdk/jdk/src/share/native/sun/security/ec/ECC_JNI.cpp
+openjdk/jdk/src/share/native/sun/security/ec/ecc_impl.h</t>
   </si>
 </sst>
 </file>
@@ -129,9 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,17 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -514,6 +569,121 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1251366</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1264812</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1293024</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1300652</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1329342</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bugs/24/bug-source.xlsx
+++ b/bugs/24/bug-source.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Bug ID</t>
   </si>
@@ -138,6 +138,22 @@
   <si>
     <t>openjdk/jdk/src/share/native/sun/security/ec/ECC_JNI.cpp
 openjdk/jdk/src/share/native/sun/security/ec/ecc_impl.h</t>
+  </si>
+  <si>
+    <t>kernel BUG at drivers/acpi/osl.c:1052!</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>drivers/acpi/osl.c
+drivers/acpi/cppc_acpi.c</t>
+  </si>
+  <si>
+    <t>firewalld does not start hanging in getrandom and gets killed by systemd after timeout</t>
+  </si>
+  <si>
+    <t>python3</t>
   </si>
 </sst>
 </file>
@@ -463,15 +479,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.6640625" customWidth="1"/>
@@ -684,6 +700,52 @@
         <v>34</v>
       </c>
     </row>
+    <row r="10" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1361039</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1383060</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bugs/24/bug-source.xlsx
+++ b/bugs/24/bug-source.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Bug ID</t>
   </si>
@@ -154,6 +154,37 @@
   </si>
   <si>
     <t>python3</t>
+  </si>
+  <si>
+    <t>vagrant nfs exports race</t>
+  </si>
+  <si>
+    <t>vagrant</t>
+  </si>
+  <si>
+    <t>vmnc decoder overflow exploitable</t>
+  </si>
+  <si>
+    <t>gstreamer-plugins-bad-free</t>
+  </si>
+  <si>
+    <t>Patch</t>
+  </si>
+  <si>
+    <t>mkdir fails to label some directories when -p -Z options are used.</t>
+  </si>
+  <si>
+    <t>coreutils</t>
+  </si>
+  <si>
+    <t>/src/install.c
+/src/mkdir.c</t>
+  </si>
+  <si>
+    <t>wrong uid used for accessing home directory : no login possible</t>
+  </si>
+  <si>
+    <t>proftpd</t>
   </si>
 </sst>
 </file>
@@ -479,17 +510,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="73.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,6 +777,98 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1395040</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1397993</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1398913</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1443507</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
